--- a/src/tests/option-insrenov.test-cases.xlsx
+++ b/src/tests/option-insrenov.test-cases.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBBCF8-A975-1344-8056-B6A2BB545827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6CEA4-4109-2C4A-935F-D916CF527DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="2280" windowWidth="40760" windowHeight="23140" activeTab="1" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="44" r:id="rId1"/>
     <sheet name="insrenov01" sheetId="2" r:id="rId2"/>
+    <sheet name="insrenov02" sheetId="45" r:id="rId3"/>
+    <sheet name="insrenov03" sheetId="46" r:id="rId4"/>
+    <sheet name="insrenov04" sheetId="47" r:id="rId5"/>
+    <sheet name="insrenov05" sheetId="48" r:id="rId6"/>
+    <sheet name="insrenov06" sheetId="49" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="122">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -572,6 +577,211 @@
       <t>レイダンボウサクゲンリツ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>housingInsulationFirstKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insrenov02</t>
+  </si>
+  <si>
+    <t>insrenov02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no-insulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓建設維持管理の排出量は、エネルギー消費削減分の打ち消し率の分だけ増加する</t>
+    <rPh sb="1" eb="3">
+      <t>ケンセツ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イジカンリ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ハイシュツリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>断熱施工によるGHG削減の打ち消し率</t>
+    <rPh sb="0" eb="2">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>電力のうち冷暖房分の割合</t>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>レイダンボウブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>都市ガスのうち冷暖房分の割合</t>
+    <rPh sb="0" eb="2">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>レイダンボウブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロパンガスのうち冷暖房分の割合</t>
+    <rPh sb="9" eb="13">
+      <t>レイダンボウブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>灯油のうち冷暖房分の割合</t>
+    <rPh sb="0" eb="2">
+      <t>トウユ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>レイダンボウブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>追加質問で算出した「断熱リノベーションによる冷暖房削減率」</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカシツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="22" eb="28">
+      <t>レイダンボウサクゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>↑各エネルギー消費量のうち冷暖房分が削減率の分だけ削減される</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウヒリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>レイダンボウブン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サクゲンリツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクゲン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>insrenov03</t>
+  </si>
+  <si>
+    <t>insrenov03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insrenov04</t>
+  </si>
+  <si>
+    <t>insrenov04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insrenov05</t>
+  </si>
+  <si>
+    <t>insrenov05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insrenov06</t>
+  </si>
+  <si>
+    <t>insrenov06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -682,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +914,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1265,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1058,7 +1275,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1382,10 +1601,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1651,6 +1870,1266 @@
       </c>
       <c r="F14" s="2"/>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>750</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>200</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1">
+        <v>750</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1">
+        <v>750</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="1">
+        <v>200</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="50"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="19">
+        <v>2</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="1">
+        <v>750</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1">
+        <v>200</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="50"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="19">
+        <v>2</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="1">
+        <v>750</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="1">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="1">
+        <v>200</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="50"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,7 +3143,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1719,11 +3198,11 @@
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -1851,7 +3330,7 @@
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <v>80.892203203208737</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2601,4 +4080,4734 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731E31DF-B670-1C4D-8718-5688766B55E7}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="46">
+        <v>98.062298138447773</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="37">
+        <v>-0.241929499072356</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3166.9425560453401</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>491.18208564006028</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1083.5068070131467</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.6071428571428571</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D4 D6:D11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D313D4C-98D9-B148-AE62-5139663D0242}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A913C1C2-9415-DF49-95BC-CF94446EAD22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D08ACC59-5ABB-614E-A702-391C8A12CAA6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D313D4C-98D9-B148-AE62-5139663D0242}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D4 D6:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A913C1C2-9415-DF49-95BC-CF94446EAD22}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D08ACC59-5ABB-614E-A702-391C8A12CAA6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDABBF6-1DDE-2743-BEE2-CCA1A806B9F6}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="46">
+        <v>75.19721116987894</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="37">
+        <v>-0.241929499072356</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3242.0582663634646</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>514.17322783487987</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1352.9740081120026</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.4358974358974359</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D4 D6:D11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FC4AC5D-F5D7-664B-8B1F-6B143B6216CF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FC9CC41-69B0-A047-BEA9-574932ECFA35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDB7E4F7-D2AA-B048-9C87-F02C1911BE38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FC4AC5D-F5D7-664B-8B1F-6B143B6216CF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D4 D6:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FC9CC41-69B0-A047-BEA9-574932ECFA35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BDB7E4F7-D2AA-B048-9C87-F02C1911BE38}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F8EE7D-1D1D-5D41-9006-CB9DB4864C23}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="46">
+        <v>58.720898501351243</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="37">
+        <v>-0.241929499072356</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3296.1857635044662</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>530.740374416441</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1547.1489030214727</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.3125</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D4 D6:D11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52DE81DF-135B-3444-BDD0-3D786F950475}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FA514976-53F6-B742-898C-7E2E8D48B3BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C54A522-2D51-AE44-8D49-8318C0AE40C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{52DE81DF-135B-3444-BDD0-3D786F950475}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D4 D6:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA514976-53F6-B742-898C-7E2E8D48B3BA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C54A522-2D51-AE44-8D49-8318C0AE40C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A0858B-672D-7D4F-861F-CD22DA231E40}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="46">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="37">
+        <v>-0.241929499072356</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3433.2618926277823</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>572.69613523987505</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2038.8905200000004</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D4 D6:D11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04956275-ACE6-994E-9398-324D7A65713D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96199A3E-40F2-E945-8DB9-2673040674B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5E9A16C-2345-9D40-92F1-53B8D423A76B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04956275-ACE6-994E-9398-324D7A65713D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D4 D6:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96199A3E-40F2-E945-8DB9-2673040674B4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5E9A16C-2345-9D40-92F1-53B8D423A76B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8055418-E19C-524F-B054-B02F4411C6AA}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="46">
+        <v>80.892203203208737</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="37">
+        <v>-0.241929499072356</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3223.3492462566237</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>508.44683931002373</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1285.8579912076627</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.47854941929367145</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D4 D6:D11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0439199F-D23A-7346-8AE0-0E7661AB5736}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{05291BED-DEE5-B440-A9E8-507C3C32C495}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EA1430D3-B852-7E4B-B587-8FB5340A825B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0439199F-D23A-7346-8AE0-0E7661AB5736}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D4 D6:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{05291BED-DEE5-B440-A9E8-507C3C32C495}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EA1430D3-B852-7E4B-B587-8FB5340A825B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>